--- a/biology/Botanique/Desmodieae/Desmodieae.xlsx
+++ b/biology/Botanique/Desmodieae/Desmodieae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Desmodieae sont une tribu de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire des régions tropicales, subtropicales et tempérées chaudes, à répartition quasi-cosmopolite, qui compte une trentaine de genres et environ 530 espèces.
-Cette tribu est classiquement subdivisée en trois sous-tribus : Bryinae, Desmodiinae et Lespedezinae. A la suite d'études moléculaires, seules deux sous-tribus ont été retenues, les Desmodiinae et Lespedezinae, la sous-tribu des Bryinae étant transférée dans la tribu des Dalbergieae sensu lato.  La tribu a été par la suite, sur la base d'analyses du gène chloroplastique rbcL, circonscrite en trois clades : le clade Lespedeza (3 genres), qui correspond à la sous-tribu des Lespedezinae, et les clades Phyllodium (12 genres) et Desmodium (17 genres), qui correspondent ensemble à la sous-tribu des Desmodiinae[2].
+Cette tribu est classiquement subdivisée en trois sous-tribus : Bryinae, Desmodiinae et Lespedezinae. A la suite d'études moléculaires, seules deux sous-tribus ont été retenues, les Desmodiinae et Lespedezinae, la sous-tribu des Bryinae étant transférée dans la tribu des Dalbergieae sensu lato.  La tribu a été par la suite, sur la base d'analyses du gène chloroplastique rbcL, circonscrite en trois clades : le clade Lespedeza (3 genres), qui correspond à la sous-tribu des Lespedezinae, et les clades Phyllodium (12 genres) et Desmodium (17 genres), qui correspondent ensemble à la sous-tribu des Desmodiinae.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (14 août 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (14 août 2018) :
 Akschindlium H.Ohashi, 2003
 Alysicarpus Neck. ex Desv., 1813
 Aphyllodium (DC.) Gagnep., 1916
